--- a/Unity/Assets/Config/Excel/TalentConfig.xlsx
+++ b/Unity/Assets/Config/Excel/TalentConfig.xlsx
@@ -802,7 +802,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,6 +815,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -825,6 +828,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -834,10 +840,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1169,13 +1181,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="5" customWidth="1"/>
@@ -1183,99 +1195,119 @@
     <col min="4" max="5" width="26.75" style="5" customWidth="1"/>
     <col min="6" max="6" width="14.125" style="6" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="6"/>
+    <col min="8" max="10" width="9" style="6"/>
+    <col min="11" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:7">
-      <c r="A2" s="10" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:10">
+      <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:5">
-      <c r="A3" s="13" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:10">
+      <c r="A3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:5">
-      <c r="A4" s="13" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:10">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:10">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="5">

--- a/Unity/Assets/Config/Excel/TalentConfig.xlsx
+++ b/Unity/Assets/Config/Excel/TalentConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="10065" tabRatio="809"/>
+    <workbookView windowWidth="22260" windowHeight="10455" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="TalentProto" sheetId="6" r:id="rId1"/>
@@ -802,7 +802,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,9 +815,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -828,9 +825,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -840,16 +834,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1184,7 +1172,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1193,121 +1181,122 @@
     <col min="2" max="2" width="13.375" style="5" customWidth="1"/>
     <col min="3" max="3" width="26.125" style="5" customWidth="1"/>
     <col min="4" max="5" width="26.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="6" customWidth="1"/>
-    <col min="8" max="10" width="9" style="6"/>
-    <col min="11" max="16384" width="9" style="7"/>
+    <col min="6" max="6" width="14.125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="5" customWidth="1"/>
+    <col min="9" max="10" width="9" style="5"/>
+    <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:10">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:10">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:10">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="5">
@@ -1322,10 +1311,10 @@
       <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1342,10 +1331,10 @@
       <c r="E7" s="5">
         <v>2</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>2</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1362,10 +1351,10 @@
       <c r="E8" s="5">
         <v>3</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>3</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1382,10 +1371,10 @@
       <c r="E9" s="5">
         <v>4</v>
       </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1402,10 +1391,10 @@
       <c r="E10" s="5">
         <v>5</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>2</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1422,10 +1411,10 @@
       <c r="E11" s="5">
         <v>6</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>3</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1442,10 +1431,10 @@
       <c r="E12" s="5">
         <v>7</v>
       </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1462,10 +1451,10 @@
       <c r="E13" s="5">
         <v>8</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>2</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1482,10 +1471,10 @@
       <c r="E14" s="5">
         <v>9</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>3</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1502,10 +1491,10 @@
       <c r="E15" s="5">
         <v>10</v>
       </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1522,10 +1511,10 @@
       <c r="E16" s="5">
         <v>11</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>2</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1542,10 +1531,10 @@
       <c r="E17" s="5">
         <v>12</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>3</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1562,10 +1551,10 @@
       <c r="E18" s="5">
         <v>13</v>
       </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1582,10 +1571,10 @@
       <c r="E19" s="5">
         <v>14</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>2</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1602,10 +1591,10 @@
       <c r="E20" s="5">
         <v>15</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>3</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>1</v>
       </c>
     </row>
